--- a/biology/Médecine/Seul_contre_tous_(film,_2015)/Seul_contre_tous_(film,_2015).xlsx
+++ b/biology/Médecine/Seul_contre_tous_(film,_2015)/Seul_contre_tous_(film,_2015).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seul contre tous ou Commotion au Québec (Concussion) est un film américain écrit et réalisé par Peter Landesman, sorti en 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2002, à Pittsburgh, le médecin Bennet Omalu révolutionne le monde de la neurologie en découvrant des cas d'encéphalopathie traumatique chronique au sein de la NFL. 
 Il dénonce les dangers du populaire football américain.
@@ -543,21 +557,23 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Concussion
 Titre français : Seul contre tous
 Titre québécois : Commotion
 Réalisation : Peter Landesman
-Scénario : Peter Landesman, d'après l'article Game Brain de Jeanne Marie Laskas[1],[2],[3]
+Scénario : Peter Landesman, d'après l'article Game Brain de Jeanne Marie Laskas
 Direction artistique : David Crank
 Décors : Tom Frohling
 Costumes : Dayna Pink
 Photographie : Salvatore Totino
 Montage : William Goldenberg
 Musique : James Newton Howard
-Production : Elizabeth Cantillon, Giannina Facio, Ridley Scott[4], Larry Shuman et David Wolthoff
+Production : Elizabeth Cantillon, Giannina Facio, Ridley Scott, Larry Shuman et David Wolthoff
 Sociétés de production : Scott Free Productions, The Shuman Company et Village Roadshow Pictures
 Sociétés de distribution : Columbia Pictures (États-Unis), Sony Pictures Releasing France (France)
 Budget : 35 millions de dollars
@@ -565,8 +581,8 @@
 Langue originale : anglais
 Format : couleur
 Genre : Drame
-Durée : 123 minutes[5]
-Dates de sortie[6] :
+Durée : 123 minutes
+Dates de sortie :
  États-Unis : 25 décembre 2015
  France : 9 mars 2016</t>
         </is>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Will Smith (VF : Lucien Jean-Baptiste ; VQ : Pierre Auger) : Dr Bennet Omalu
 Alec Baldwin (VF : Bernard Lanneau ; VQ : Marc Bellier) : Dr Julian Bailes
@@ -617,7 +635,7 @@
 Bitsie Tulloch (VF : Armelle Gallaud ; VQ : Annie Girard) : Keana Strzelczyk
 L. Scott Caldwell (VF : Maïk Darah ; VQ : Carole Chatel) : la mère de Waters
 Eme Ikwuakor : Amobi Okoye (non crédité)
- Source et légende : version française (VF) sur RS Doublage[7]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -647,10 +665,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival du film de Hollywood 2015 : Hollywood Actor Award pour Will Smith
-Nominations
-Golden Globes 2016 : meilleur acteur dans un film dramatique pour Will Smith
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival du film de Hollywood 2015 : Hollywood Actor Award pour Will Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seul_contre_tous_(film,_2015)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seul_contre_tous_(film,_2015)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Golden Globes 2016 : meilleur acteur dans un film dramatique pour Will Smith
 Razzie Awards 2016 : prix spécial du repentant pour Will Smith : des nombreux Razzie Awards d'After Earth à son interprétation dans Seul contre tous</t>
         </is>
       </c>
